--- a/docs/Backlog V2.xlsx
+++ b/docs/Backlog V2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
   <si>
     <t>Backlog Zoo-ggle V2</t>
   </si>
@@ -472,7 +472,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border/>
     <border>
       <left style="thin">
@@ -679,11 +679,32 @@
         <color rgb="FF434343"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF434343"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF434343"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF434343"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF434343"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -842,6 +863,11 @@
     <xf borderId="17" fillId="0" fontId="25" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="21" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="24" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="0" fontId="24" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2213,7 +2239,7 @@
       <c r="AG26" s="40"/>
       <c r="AH26" s="41"/>
       <c r="AI26" s="59" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AJ26" s="40"/>
       <c r="AK26" s="40"/>
@@ -2765,7 +2791,7 @@
       <c r="AG36" s="40"/>
       <c r="AH36" s="41"/>
       <c r="AI36" s="39" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AJ36" s="40"/>
       <c r="AK36" s="40"/>
@@ -2823,7 +2849,9 @@
       <c r="AF37" s="47"/>
       <c r="AG37" s="47"/>
       <c r="AH37" s="48"/>
-      <c r="AI37" s="46"/>
+      <c r="AI37" s="46" t="s">
+        <v>16</v>
+      </c>
       <c r="AJ37" s="47"/>
       <c r="AK37" s="47"/>
       <c r="AL37" s="47"/>
@@ -2881,7 +2909,7 @@
       <c r="AG38" s="53"/>
       <c r="AH38" s="54"/>
       <c r="AI38" s="52" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AJ38" s="53"/>
       <c r="AK38" s="53"/>
@@ -2940,7 +2968,7 @@
       <c r="AG39" s="53"/>
       <c r="AH39" s="54"/>
       <c r="AI39" s="52" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AJ39" s="53"/>
       <c r="AK39" s="53"/>
@@ -3290,7 +3318,7 @@
       <c r="AG46" s="40"/>
       <c r="AH46" s="41"/>
       <c r="AI46" s="59" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AJ46" s="40"/>
       <c r="AK46" s="40"/>
@@ -3348,18 +3376,18 @@
       <c r="AF47" s="53"/>
       <c r="AG47" s="53"/>
       <c r="AH47" s="54"/>
-      <c r="AI47" s="60" t="s">
-        <v>16</v>
+      <c r="AI47" s="59" t="s">
+        <v>12</v>
       </c>
-      <c r="AJ47" s="53"/>
-      <c r="AK47" s="53"/>
-      <c r="AL47" s="53"/>
-      <c r="AM47" s="53"/>
-      <c r="AN47" s="53"/>
-      <c r="AO47" s="53"/>
-      <c r="AP47" s="53"/>
-      <c r="AQ47" s="53"/>
-      <c r="AR47" s="56"/>
+      <c r="AJ47" s="40"/>
+      <c r="AK47" s="40"/>
+      <c r="AL47" s="40"/>
+      <c r="AM47" s="40"/>
+      <c r="AN47" s="40"/>
+      <c r="AO47" s="40"/>
+      <c r="AP47" s="40"/>
+      <c r="AQ47" s="40"/>
+      <c r="AR47" s="43"/>
       <c r="AS47" s="29"/>
       <c r="AT47" s="29"/>
       <c r="AU47" s="29"/>
@@ -3407,18 +3435,18 @@
       <c r="AF48" s="53"/>
       <c r="AG48" s="53"/>
       <c r="AH48" s="54"/>
-      <c r="AI48" s="60" t="s">
-        <v>16</v>
+      <c r="AI48" s="59" t="s">
+        <v>12</v>
       </c>
-      <c r="AJ48" s="53"/>
-      <c r="AK48" s="53"/>
-      <c r="AL48" s="53"/>
-      <c r="AM48" s="53"/>
-      <c r="AN48" s="53"/>
-      <c r="AO48" s="53"/>
-      <c r="AP48" s="53"/>
-      <c r="AQ48" s="53"/>
-      <c r="AR48" s="56"/>
+      <c r="AJ48" s="40"/>
+      <c r="AK48" s="40"/>
+      <c r="AL48" s="40"/>
+      <c r="AM48" s="40"/>
+      <c r="AN48" s="40"/>
+      <c r="AO48" s="40"/>
+      <c r="AP48" s="40"/>
+      <c r="AQ48" s="40"/>
+      <c r="AR48" s="43"/>
       <c r="AS48" s="29"/>
       <c r="AT48" s="29"/>
       <c r="AU48" s="29"/>
@@ -3466,18 +3494,18 @@
       <c r="AF49" s="53"/>
       <c r="AG49" s="53"/>
       <c r="AH49" s="54"/>
-      <c r="AI49" s="60" t="s">
-        <v>16</v>
+      <c r="AI49" s="59" t="s">
+        <v>12</v>
       </c>
-      <c r="AJ49" s="53"/>
-      <c r="AK49" s="53"/>
-      <c r="AL49" s="53"/>
-      <c r="AM49" s="53"/>
-      <c r="AN49" s="53"/>
-      <c r="AO49" s="53"/>
-      <c r="AP49" s="53"/>
-      <c r="AQ49" s="53"/>
-      <c r="AR49" s="56"/>
+      <c r="AJ49" s="40"/>
+      <c r="AK49" s="40"/>
+      <c r="AL49" s="40"/>
+      <c r="AM49" s="40"/>
+      <c r="AN49" s="40"/>
+      <c r="AO49" s="40"/>
+      <c r="AP49" s="40"/>
+      <c r="AQ49" s="40"/>
+      <c r="AR49" s="43"/>
       <c r="AS49" s="29"/>
       <c r="AT49" s="29"/>
       <c r="AU49" s="29"/>
@@ -3525,18 +3553,18 @@
       <c r="AF50" s="53"/>
       <c r="AG50" s="53"/>
       <c r="AH50" s="54"/>
-      <c r="AI50" s="60" t="s">
-        <v>16</v>
+      <c r="AI50" s="59" t="s">
+        <v>12</v>
       </c>
-      <c r="AJ50" s="53"/>
-      <c r="AK50" s="53"/>
-      <c r="AL50" s="53"/>
-      <c r="AM50" s="53"/>
-      <c r="AN50" s="53"/>
-      <c r="AO50" s="53"/>
-      <c r="AP50" s="53"/>
-      <c r="AQ50" s="53"/>
-      <c r="AR50" s="56"/>
+      <c r="AJ50" s="40"/>
+      <c r="AK50" s="40"/>
+      <c r="AL50" s="40"/>
+      <c r="AM50" s="40"/>
+      <c r="AN50" s="40"/>
+      <c r="AO50" s="40"/>
+      <c r="AP50" s="40"/>
+      <c r="AQ50" s="40"/>
+      <c r="AR50" s="43"/>
       <c r="AS50" s="29"/>
       <c r="AT50" s="29"/>
       <c r="AU50" s="29"/>
@@ -3584,18 +3612,18 @@
       <c r="AF51" s="53"/>
       <c r="AG51" s="53"/>
       <c r="AH51" s="54"/>
-      <c r="AI51" s="60" t="s">
+      <c r="AI51" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="AJ51" s="53"/>
-      <c r="AK51" s="53"/>
-      <c r="AL51" s="53"/>
-      <c r="AM51" s="53"/>
-      <c r="AN51" s="53"/>
-      <c r="AO51" s="53"/>
-      <c r="AP51" s="53"/>
-      <c r="AQ51" s="53"/>
-      <c r="AR51" s="56"/>
+      <c r="AJ51" s="63"/>
+      <c r="AK51" s="63"/>
+      <c r="AL51" s="63"/>
+      <c r="AM51" s="63"/>
+      <c r="AN51" s="63"/>
+      <c r="AO51" s="63"/>
+      <c r="AP51" s="63"/>
+      <c r="AQ51" s="63"/>
+      <c r="AR51" s="64"/>
       <c r="AS51" s="29"/>
       <c r="AT51" s="29"/>
       <c r="AU51" s="29"/>
@@ -4186,7 +4214,7 @@
       <c r="AG62" s="53"/>
       <c r="AH62" s="54"/>
       <c r="AI62" s="60" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AJ62" s="53"/>
       <c r="AK62" s="53"/>
@@ -32461,61 +32489,53 @@
     <mergeCell ref="O26:X26"/>
     <mergeCell ref="Y34:AH34"/>
     <mergeCell ref="AI34:AR34"/>
-    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="E39:N39"/>
+    <mergeCell ref="O39:X39"/>
+    <mergeCell ref="Y39:AH39"/>
+    <mergeCell ref="AI39:AR39"/>
     <mergeCell ref="O45:X45"/>
     <mergeCell ref="Y45:AH45"/>
     <mergeCell ref="AI45:AR45"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="E46:N46"/>
     <mergeCell ref="O46:X46"/>
     <mergeCell ref="Y46:AH46"/>
     <mergeCell ref="AI46:AR46"/>
-    <mergeCell ref="E46:N46"/>
     <mergeCell ref="E47:N47"/>
     <mergeCell ref="O47:X47"/>
-    <mergeCell ref="Y47:AH47"/>
     <mergeCell ref="AI47:AR47"/>
     <mergeCell ref="E48:N48"/>
     <mergeCell ref="O48:X48"/>
-    <mergeCell ref="E49:N49"/>
+    <mergeCell ref="Y48:AH48"/>
     <mergeCell ref="O49:X49"/>
     <mergeCell ref="Y49:AH49"/>
+    <mergeCell ref="AI48:AR48"/>
     <mergeCell ref="AI49:AR49"/>
+    <mergeCell ref="E49:N49"/>
+    <mergeCell ref="E50:N50"/>
+    <mergeCell ref="O50:X50"/>
     <mergeCell ref="Y50:AH50"/>
-    <mergeCell ref="AI50:AR50"/>
-    <mergeCell ref="O50:X50"/>
     <mergeCell ref="E51:N51"/>
     <mergeCell ref="O51:X51"/>
+    <mergeCell ref="AI50:AR50"/>
+    <mergeCell ref="O58:X58"/>
+    <mergeCell ref="Y58:AH58"/>
     <mergeCell ref="Y51:AH51"/>
     <mergeCell ref="AI51:AR51"/>
-    <mergeCell ref="E50:N50"/>
     <mergeCell ref="E57:N57"/>
     <mergeCell ref="O57:X57"/>
     <mergeCell ref="Y57:AH57"/>
     <mergeCell ref="AI57:AR57"/>
-    <mergeCell ref="Y58:AH58"/>
     <mergeCell ref="AI58:AR58"/>
-    <mergeCell ref="O60:X60"/>
     <mergeCell ref="Y60:AH60"/>
-    <mergeCell ref="O58:X58"/>
+    <mergeCell ref="AI60:AR60"/>
     <mergeCell ref="E58:N58"/>
     <mergeCell ref="E59:N59"/>
     <mergeCell ref="O59:X59"/>
     <mergeCell ref="Y59:AH59"/>
     <mergeCell ref="AI59:AR59"/>
-    <mergeCell ref="AI60:AR60"/>
-    <mergeCell ref="E35:N35"/>
-    <mergeCell ref="O35:X35"/>
-    <mergeCell ref="Y35:AH35"/>
-    <mergeCell ref="AI35:AR35"/>
-    <mergeCell ref="O36:X36"/>
-    <mergeCell ref="Y36:AH36"/>
-    <mergeCell ref="AI36:AR36"/>
-    <mergeCell ref="E36:N36"/>
-    <mergeCell ref="E37:N37"/>
-    <mergeCell ref="O37:X37"/>
-    <mergeCell ref="Y37:AH37"/>
-    <mergeCell ref="AI37:AR37"/>
-    <mergeCell ref="E38:N38"/>
-    <mergeCell ref="O38:X38"/>
+    <mergeCell ref="E60:N60"/>
+    <mergeCell ref="O60:X60"/>
     <mergeCell ref="E27:N27"/>
     <mergeCell ref="O27:X27"/>
     <mergeCell ref="Y27:AH27"/>
@@ -32530,23 +32550,31 @@
     <mergeCell ref="AI29:AR29"/>
     <mergeCell ref="E34:N34"/>
     <mergeCell ref="O34:X34"/>
+    <mergeCell ref="E35:N35"/>
+    <mergeCell ref="O35:X35"/>
+    <mergeCell ref="Y35:AH35"/>
+    <mergeCell ref="AI35:AR35"/>
+    <mergeCell ref="O36:X36"/>
+    <mergeCell ref="Y36:AH36"/>
+    <mergeCell ref="AI36:AR36"/>
     <mergeCell ref="Y38:AH38"/>
     <mergeCell ref="AI38:AR38"/>
-    <mergeCell ref="Y39:AH39"/>
-    <mergeCell ref="AI39:AR39"/>
-    <mergeCell ref="Y48:AH48"/>
-    <mergeCell ref="AI48:AR48"/>
-    <mergeCell ref="Y62:AH62"/>
-    <mergeCell ref="AI62:AR62"/>
-    <mergeCell ref="E60:N60"/>
+    <mergeCell ref="E36:N36"/>
+    <mergeCell ref="E37:N37"/>
+    <mergeCell ref="O37:X37"/>
+    <mergeCell ref="Y37:AH37"/>
+    <mergeCell ref="AI37:AR37"/>
+    <mergeCell ref="E38:N38"/>
+    <mergeCell ref="O38:X38"/>
     <mergeCell ref="E61:N61"/>
     <mergeCell ref="O61:X61"/>
     <mergeCell ref="Y61:AH61"/>
     <mergeCell ref="AI61:AR61"/>
     <mergeCell ref="E62:N62"/>
     <mergeCell ref="O62:X62"/>
-    <mergeCell ref="E39:N39"/>
-    <mergeCell ref="O39:X39"/>
+    <mergeCell ref="Y62:AH62"/>
+    <mergeCell ref="AI62:AR62"/>
+    <mergeCell ref="Y47:AH47"/>
   </mergeCells>
   <conditionalFormatting sqref="AB1:AK1 D2:D3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">

--- a/docs/Backlog V2.xlsx
+++ b/docs/Backlog V2.xlsx
@@ -115,7 +115,7 @@
         <rFont val="Lato"/>
         <color rgb="FFCC4125"/>
       </rPr>
-      <t xml:space="preserve"> (Le ban est suffisant non ?, le fait de suppr le compte permet au joueur de revenir avec cette meme adresse )</t>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
